--- a/src/main/resources/PostsData.xlsx
+++ b/src/main/resources/PostsData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Titre</t>
   </si>
@@ -29,82 +29,64 @@
     <t>Updated_at</t>
   </si>
   <si>
-    <t>aaa</t>
+    <t>ooo</t>
+  </si>
+  <si>
+    <t>C:\\Users\\garal\\OneDrive\\Images\\1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial </t>
+  </si>
+  <si>
+    <t>2024-04-21 13:28:28.0</t>
+  </si>
+  <si>
+    <t>sfar</t>
+  </si>
+  <si>
+    <t>jkfdsfldjvbds</t>
+  </si>
+  <si>
+    <t>C:\\Users\\garal\\IdeaProjects\\Django2\\src\\main\\resources\\image\\account.png</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>2024-04-21 14:09:38.0</t>
+  </si>
+  <si>
+    <t>eeeee</t>
+  </si>
+  <si>
+    <t>eeeeee</t>
+  </si>
+  <si>
+    <t>eeeeeee</t>
+  </si>
+  <si>
+    <t>2024-04-22 00:55:29.0</t>
+  </si>
+  <si>
+    <t>2024-04-22 00:55:30.0</t>
+  </si>
+  <si>
+    <t>zzzz</t>
   </si>
   <si>
     <t>aaaa</t>
   </si>
   <si>
-    <t>C:\\Users\\garal\\OneDrive\\Images\\1.jpg</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>2024-04-15 14:59:52.0</t>
-  </si>
-  <si>
-    <t>2024-04-15 14:59:54.0</t>
-  </si>
-  <si>
-    <t>2024-04-15 14:59:55.0</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>2024-04-15 15:00:00.0</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>images1-65d0e628018ca051683185.jpg</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>2024-02-17 18:00:24.0</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>peakpx-65d28fa901408615944525.jpg</t>
-  </si>
-  <si>
-    <t>category1</t>
-  </si>
-  <si>
-    <t>2024-02-19 00:15:53.0</t>
-  </si>
-  <si>
-    <t>alallaalallalalallalal</t>
-  </si>
-  <si>
-    <t>assurance-65dbdb4458ccb644520680.jpg</t>
-  </si>
-  <si>
-    <t>nouveaute</t>
-  </si>
-  <si>
-    <t>2024-02-26 01:28:52.0</t>
-  </si>
-  <si>
-    <t>images-1-65e253c822cb4524365828.jpg</t>
-  </si>
-  <si>
-    <t>conscience</t>
-  </si>
-  <si>
-    <t>2024-03-01 23:16:40.0</t>
+    <t>2024-04-22 15:32:27.0</t>
+  </si>
+  <si>
+    <t>nizar</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:14:01.0</t>
   </si>
 </sst>
 </file>
@@ -149,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,84 +159,84 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>8</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -262,84 +244,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/PostsData.xlsx
+++ b/src/main/resources/PostsData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Titre</t>
   </si>
@@ -29,64 +29,130 @@
     <t>Updated_at</t>
   </si>
   <si>
-    <t>ooo</t>
-  </si>
-  <si>
-    <t>C:\\Users\\garal\\OneDrive\\Images\\1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial </t>
-  </si>
-  <si>
-    <t>2024-04-21 13:28:28.0</t>
-  </si>
-  <si>
-    <t>sfar</t>
-  </si>
-  <si>
-    <t>jkfdsfldjvbds</t>
-  </si>
-  <si>
-    <t>C:\\Users\\garal\\IdeaProjects\\Django2\\src\\main\\resources\\image\\account.png</t>
-  </si>
-  <si>
-    <t>adam</t>
-  </si>
-  <si>
-    <t>2024-04-21 14:09:38.0</t>
-  </si>
-  <si>
-    <t>eeeee</t>
-  </si>
-  <si>
-    <t>eeeeee</t>
-  </si>
-  <si>
-    <t>eeeeeee</t>
-  </si>
-  <si>
-    <t>2024-04-22 00:55:29.0</t>
-  </si>
-  <si>
-    <t>2024-04-22 00:55:30.0</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>2024-04-22 15:32:27.0</t>
-  </si>
-  <si>
-    <t>nizar</t>
-  </si>
-  <si>
-    <t>rrr</t>
-  </si>
-  <si>
-    <t>2024-04-23 13:14:01.0</t>
+    <t>ppppp</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>images1-65d0e628018ca051683185.jpg</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>2024-02-17 18:00:24.0</t>
+  </si>
+  <si>
+    <t>life is strange</t>
+  </si>
+  <si>
+    <t>alallaalallalalallalal</t>
+  </si>
+  <si>
+    <t>1-65d0eb2952577132742033.jpg</t>
+  </si>
+  <si>
+    <t>category2</t>
+  </si>
+  <si>
+    <t>2024-02-17 18:21:45.0</t>
+  </si>
+  <si>
+    <t>bechir garal</t>
+  </si>
+  <si>
+    <t>category3</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>peakpx-65d28fa901408615944525.jpg</t>
+  </si>
+  <si>
+    <t>category1</t>
+  </si>
+  <si>
+    <t>2024-02-19 00:15:53.0</t>
+  </si>
+  <si>
+    <t>new updates</t>
+  </si>
+  <si>
+    <t>dennencnn vnfnndsnsdn</t>
+  </si>
+  <si>
+    <t>peakpx-65d3fac61b645602380178.jpg</t>
+  </si>
+  <si>
+    <t>2024-02-20 02:05:10.0</t>
+  </si>
+  <si>
+    <t>our last news</t>
+  </si>
+  <si>
+    <t>hdhdjskskskskzks</t>
+  </si>
+  <si>
+    <t>c-65d4a6a399d5a282547436.jpg</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>2024-02-20 14:18:27.0</t>
+  </si>
+  <si>
+    <t>ajouter des nouveaute</t>
+  </si>
+  <si>
+    <t>assurance des voitures luxueuse</t>
+  </si>
+  <si>
+    <t>les-differents-types-dassurance-65e6fac154d6b073816532.jpg</t>
+  </si>
+  <si>
+    <t>nouveaute</t>
+  </si>
+  <si>
+    <t>2024-03-05 11:58:09.0</t>
+  </si>
+  <si>
+    <t>our new service</t>
+  </si>
+  <si>
+    <t>best in the west</t>
+  </si>
+  <si>
+    <t>les-differents-types-dassurance-65e6f9d136f5a281350391.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-05 11:54:09.0</t>
+  </si>
+  <si>
+    <t>assurance-65db5bd220a4b020401463.jpg</t>
+  </si>
+  <si>
+    <t>2024-02-25 16:25:06.0</t>
   </si>
 </sst>
 </file>
@@ -131,7 +197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,118 +225,167 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5" s="0"/>
       <c r="D5" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
